--- a/US/data/BTS/TRPT/TVT_historical - Urban - Quarterly.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Urban - Quarterly.xlsx
@@ -1407,10 +1407,10 @@
         <v>127545</v>
       </c>
       <c r="DV2" t="n">
-        <v>124482</v>
+        <v>124465</v>
       </c>
       <c r="DW2" t="n">
-        <v>142824</v>
+        <v>142621</v>
       </c>
       <c r="DX2" t="n">
         <v>147136</v>
@@ -1419,7 +1419,7 @@
         <v>143269</v>
       </c>
       <c r="DZ2" t="n">
-        <v>42122</v>
+        <v>133073</v>
       </c>
       <c r="EA2" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>259895</v>
       </c>
       <c r="DV3" t="n">
-        <v>252210</v>
+        <v>252209</v>
       </c>
       <c r="DW3" t="n">
-        <v>286693</v>
+        <v>286425</v>
       </c>
       <c r="DX3" t="n">
-        <v>296797</v>
+        <v>296795</v>
       </c>
       <c r="DY3" t="n">
-        <v>286062</v>
+        <v>286058</v>
       </c>
       <c r="DZ3" t="n">
-        <v>85186</v>
+        <v>266027</v>
       </c>
       <c r="EA3" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>123968</v>
       </c>
       <c r="DV4" t="n">
-        <v>120224</v>
+        <v>120218</v>
       </c>
       <c r="DW4" t="n">
-        <v>139518</v>
+        <v>139471</v>
       </c>
       <c r="DX4" t="n">
         <v>142143</v>
@@ -2225,7 +2225,7 @@
         <v>138004</v>
       </c>
       <c r="DZ4" t="n">
-        <v>41416</v>
+        <v>128656</v>
       </c>
       <c r="EA4" t="n">
         <v>0</v>
@@ -2616,19 +2616,19 @@
         <v>511408</v>
       </c>
       <c r="DV5" t="n">
-        <v>496916</v>
+        <v>496892</v>
       </c>
       <c r="DW5" t="n">
-        <v>569036</v>
+        <v>568517</v>
       </c>
       <c r="DX5" t="n">
-        <v>586077</v>
+        <v>586075</v>
       </c>
       <c r="DY5" t="n">
-        <v>567336</v>
+        <v>567332</v>
       </c>
       <c r="DZ5" t="n">
-        <v>168724</v>
+        <v>527756</v>
       </c>
       <c r="EA5" t="n">
         <v>0</v>

--- a/US/data/BTS/TRPT/TVT_historical - Urban - Quarterly.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Urban - Quarterly.xlsx
@@ -1419,10 +1419,10 @@
         <v>143269</v>
       </c>
       <c r="DZ2" t="n">
-        <v>133073</v>
+        <v>133076</v>
       </c>
       <c r="EA2" t="n">
-        <v>0</v>
+        <v>46188</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>286058</v>
       </c>
       <c r="DZ3" t="n">
-        <v>266027</v>
+        <v>266046</v>
       </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>91763</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>138004</v>
       </c>
       <c r="DZ4" t="n">
-        <v>128656</v>
+        <v>128629</v>
       </c>
       <c r="EA4" t="n">
-        <v>0</v>
+        <v>45097</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>567332</v>
       </c>
       <c r="DZ5" t="n">
-        <v>527756</v>
+        <v>527750</v>
       </c>
       <c r="EA5" t="n">
-        <v>0</v>
+        <v>183048</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
